--- a/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (19).xlsx
+++ b/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (19).xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>CTFLife PD Broker Admin Bulk Upload Template</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Critical Illness</t>
+  </si>
+  <si>
+    <t>JT</t>
   </si>
   <si>
     <t>Mobile Number - Country*</t>
@@ -1347,7 +1350,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2"/>
@@ -1528,7 +1531,7 @@
         <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
         <v>28</v>
@@ -1616,13 +1619,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>19</v>
@@ -1639,16 +1642,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1">
         <v>852</v>
@@ -1663,7 +1666,7 @@
         <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -1681,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>26</v>
@@ -1694,13 +1697,13 @@
         <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -1715,7 +1718,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
         <v>853</v>
@@ -1725,7 +1728,7 @@
         <v>853</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1734,10 +1737,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -1747,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -1756,10 +1759,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1">
         <v>8</v>
@@ -1769,7 +1772,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1777,10 +1780,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -1790,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1798,10 +1801,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1">
         <v>12</v>
@@ -1811,7 +1814,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1819,10 +1822,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
         <v>16</v>
@@ -1834,10 +1837,10 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1">
         <v>20</v>
@@ -1852,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
         <v>24</v>
@@ -1867,7 +1870,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
         <v>28</v>
@@ -1882,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>31</v>

--- a/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (19).xlsx
+++ b/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (19).xlsx
@@ -228,7 +228,7 @@
     <t>Critical Illness</t>
   </si>
   <si>
-    <t>JT</t>
+    <t xml:space="preserve">JT </t>
   </si>
   <si>
     <t>Mobile Number - Country*</t>
